--- a/biology/Botanique/Forêt_de_Gastines/Forêt_de_Gastines.xlsx
+++ b/biology/Botanique/Forêt_de_Gastines/Forêt_de_Gastines.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Gastines</t>
+          <t>Forêt_de_Gastines</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La forêt de Gastines était située entre le nord de la Touraine et la vallée du Loir vendômois. 
 Elle a été défrichée à partir du XIe siècle, notamment à partir des prieurés implantés par les moines des abbayes de Tours et de Vendôme. Il en subsiste notamment la forêt de Beaumont-la-Ronce (Indre-et-Loire 47° 35′ 20″ N, 0° 41′ 40″ E) et le bois de Gâtines (canton de Montoire, Loir-et-Cher 47° 41′ 50″ N, 0° 43′ 30″ E).  
